--- a/data/CReDEs/v3/dg_blzd.xlsx
+++ b/data/CReDEs/v3/dg_blzd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\东肝\CReDEs\v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0E3C79-336C-438C-8322-F944F48FBA57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7301850-5314-4BAF-9367-9FDB1C12AB9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{77CF7729-489F-4928-9833-E8D0A48313B1}"/>
   </bookViews>
@@ -305,10 +305,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>镜下是否可见血管侵犯，肉眼是否可见血管侵犯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>侵犯部位</t>
   </si>
   <si>
@@ -504,6 +500,10 @@
   </si>
   <si>
     <t>0=无；1=有；2=未描述,0=无；1=有；2=未描述,0=无；1=有；2=未描述,0=无；1=有；2=未描述,0=无；1=有；2=未描述,0=无；1=有；2=未描述,0=无；1=有；2=未描述,0=无；1=有；2=未描述,0=无；1=有；2=未描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜下是否可见血管侵犯,肉眼是否可见血管侵犯</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -983,7 +983,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -995,7 +995,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1048,10 +1048,10 @@
         <v>13</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1111,10 +1111,10 @@
         <v>25</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1135,7 +1135,7 @@
         <v>17</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1156,7 +1156,7 @@
         <v>32</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1242,7 +1242,7 @@
         <v>36</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1263,7 +1263,7 @@
         <v>51</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1284,7 +1284,7 @@
         <v>36</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1305,7 +1305,7 @@
         <v>36</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1326,7 +1326,7 @@
         <v>36</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1368,7 +1368,7 @@
         <v>36</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1389,7 +1389,7 @@
         <v>36</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1410,7 +1410,7 @@
         <v>36</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1446,28 +1446,28 @@
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="5" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>51</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>22</v>
@@ -1478,191 +1478,191 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="G24" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="G27" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="F28" s="14" t="s">
-        <v>103</v>
-      </c>
       <c r="G28" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>115</v>
-      </c>
       <c r="G31" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
